--- a/workplace table details.xlsx
+++ b/workplace table details.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="New Workplace Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Database Name :</t>
   </si>
@@ -38,9 +33,6 @@
     <t>article_category</t>
   </si>
   <si>
-    <t>auto_id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -72,13 +64,49 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>likeid</t>
+  </si>
+  <si>
+    <t>clickid</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>site_title</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>userip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,21 +419,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
@@ -416,15 +444,15 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2">
         <v>43201</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -440,61 +468,120 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12">
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
         <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
